--- a/questionnaires/categories/impacts.xlsx
+++ b/questionnaires/categories/impacts.xlsx
@@ -1,79 +1,92 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA3\questionnaires\categories\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51EB570-EE0F-41F9-87A0-66CDECA59386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="1410" windowWidth="29070" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Categories" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Categories" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase Agricultural productivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase Livestock productivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improve country exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improve quality of existing health services on cancer and other NCTs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reduction of infectious and NCD persisntance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improve energy planning to meet future energy needs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Support clean energy production and safe introduction/operation of nuclear power in the energy mix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improve efficiency, safety and quality of industrial process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improve quality, reliability and compatibility of measurements results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improve research and innovation in industrial practices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase in water quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase in water quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assess impact of pollution in land-air, costal ecosystems and oceans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitor effectiveness of remedial action in cobating land, air, costal ecosystems and ocean pollution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulatory infraestructure to ensure radiation safety and security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radiation protection for workers, patients, and the environment safety</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Increase Agricultural productivity</t>
+  </si>
+  <si>
+    <t>Increase Livestock productivity</t>
+  </si>
+  <si>
+    <t>Improve food safety and quality</t>
+  </si>
+  <si>
+    <t>Improve existing health services for diagnosis and treatment of cancer and other NCDs</t>
+  </si>
+  <si>
+    <t>Expand Healthcare Services for cancer treatment and other NCDs</t>
+  </si>
+  <si>
+    <t>Improve effective diagnosis and treatment of infectious diseases</t>
+  </si>
+  <si>
+    <t>Improve effectiveness of nutrition programmes interventions and practices</t>
+  </si>
+  <si>
+    <t>Improve energy planning to meet future energy needs</t>
+  </si>
+  <si>
+    <t>Support advanced energy production and safe introduction/operation of nuclear power in the energy mix</t>
+  </si>
+  <si>
+    <t>Improve efficiency, safety and quality of industrial process</t>
+  </si>
+  <si>
+    <t>Improve quality, reliability and compatibility of measurements results</t>
+  </si>
+  <si>
+    <t>Improve research and innovation in industrial practices</t>
+  </si>
+  <si>
+    <t>Reduction in contaminant concentration and increase in quality of drinking water</t>
+  </si>
+  <si>
+    <t>Improved quality of freshwater systems</t>
+  </si>
+  <si>
+    <t>Assess impact of pollution in land-air, costal ecosystems and oceans</t>
+  </si>
+  <si>
+    <t>Monitor effectiveness of remedial action in cobating land, air, costal ecosystems and ocean pollution</t>
+  </si>
+  <si>
+    <t>Strong and sustainable nuclear and radiation safety framework</t>
+  </si>
+  <si>
+    <t>Effective radiation protection on the use of ionizing radiation in energy production, medicine, industry and research</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -109,6 +122,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -390,14 +412,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,172 +427,152 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>31</v>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>32</v>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>41</v>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>42</v>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>43</v>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>51</v>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>42</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>52</v>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>43</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>53</v>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>51</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>54</v>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>52</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>61</v>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>53</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>62</v>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>54</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18"/>
-      <c r="B18"/>
-    </row>
-    <row r="19">
-      <c r="A19"/>
-      <c r="B19"/>
-    </row>
-    <row r="20">
-      <c r="A20"/>
-      <c r="B20"/>
-    </row>
-    <row r="21">
-      <c r="A21"/>
-      <c r="B21"/>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22"/>
-    </row>
-    <row r="23">
-      <c r="A23"/>
-      <c r="B23"/>
-    </row>
-    <row r="24">
-      <c r="A24"/>
-      <c r="B24"/>
-    </row>
-    <row r="25">
-      <c r="A25"/>
-      <c r="B25"/>
-    </row>
-    <row r="26">
-      <c r="A26"/>
-      <c r="B26"/>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/questionnaires/categories/impacts.xlsx
+++ b/questionnaires/categories/impacts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA3\questionnaires\categories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51EB570-EE0F-41F9-87A0-66CDECA59386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C354E7F-C99E-4330-A85D-2D89DE26367D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1410" windowWidth="29070" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13068" yWindow="17172" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Categories" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
     <t>Improve energy planning to meet future energy needs</t>
   </si>
   <si>
-    <t>Support advanced energy production and safe introduction/operation of nuclear power in the energy mix</t>
+    <t>Support advanced energy production and safe introduction/operation of nuclear power/nuclear fuel cycle in the energy mix</t>
   </si>
   <si>
     <t>Improve efficiency, safety and quality of industrial process</t>
